--- a/data/Budburst Chill Datasheet 2016-01-25 copy.xlsx
+++ b/data/Budburst Chill Datasheet 2016-01-25 copy.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
@@ -28790,7 +28790,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
